--- a/biology/Zoologie/Corytophanes_hernandesii/Corytophanes_hernandesii.xlsx
+++ b/biology/Zoologie/Corytophanes_hernandesii/Corytophanes_hernandesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corytophanes hernandesii est une espèce de sauriens de la famille des Corytophanidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corytophanes hernandesii est une espèce de sauriens de la famille des Corytophanidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Honduras, au Guatemala, au Belize et au Mexique au Quintana Roo, au Yucatán, au Campeche, au Chiapas, en Oaxaca, au Puebla, au Veracruz et au San Luis Potosí[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Honduras, au Guatemala, au Belize et au Mexique au Quintana Roo, au Yucatán, au Campeche, au Chiapas, en Oaxaca, au Puebla, au Veracruz et au San Luis Potosí.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Francisco Hernández[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Francisco Hernández.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1831 "1830" : A synopsis of the species of Class Reptilia. The animal kingdom arranged in conformity with its organisation by the Baron Cuvier with additional descriptions of all the species hither named, and of many before noticed, V Whittaker, Treacher and Co., London, vol. 9, Supplement, p. 1-110 (texte intégral).</t>
         </is>
